--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Temperature °C</t>
   </si>
@@ -50,6 +52,39 @@
   </si>
   <si>
     <t>Error (%)</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Intercepto</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Temperatura (°C)</t>
+  </si>
+  <si>
+    <t>Tiempos (h)</t>
+  </si>
+  <si>
+    <t>Y_R</t>
+  </si>
+  <si>
+    <t>Y_VGO</t>
+  </si>
+  <si>
+    <t>Y_D</t>
+  </si>
+  <si>
+    <t>Y_N</t>
+  </si>
+  <si>
+    <t>Y_G</t>
   </si>
 </sst>
 </file>
@@ -407,16 +442,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>320</v>
+      </c>
+      <c r="C2">
+        <v>0.00214000036845905</v>
+      </c>
+      <c r="D2">
+        <v>0.001310047770314725</v>
+      </c>
+      <c r="E2">
+        <v>0.0003000264112207816</v>
+      </c>
+      <c r="F2">
+        <v>5.992544976699052e-05</v>
+      </c>
+      <c r="G2">
+        <v>0.006699930964178324</v>
+      </c>
+      <c r="H2">
+        <v>0.004909952720849553</v>
+      </c>
+      <c r="I2">
+        <v>1.170667148842357e-07</v>
+      </c>
+      <c r="J2">
+        <v>0.001050019885013064</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.076881976108033e-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>0.008450003255934745</v>
+      </c>
+      <c r="D3">
+        <v>0.006100000686004772</v>
+      </c>
+      <c r="E3">
+        <v>0.001130001060874508</v>
+      </c>
+      <c r="F3">
+        <v>0.0007299946289058303</v>
+      </c>
+      <c r="G3">
+        <v>0.002820001832297622</v>
+      </c>
+      <c r="H3">
+        <v>0.001410000076117699</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.0004600031799162719</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.801118395847966e-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>360</v>
+      </c>
+      <c r="C4">
+        <v>0.01324000332388983</v>
+      </c>
+      <c r="D4">
+        <v>0.009510001794828056</v>
+      </c>
+      <c r="E4">
+        <v>0.002510001357703068</v>
+      </c>
+      <c r="F4">
+        <v>0.0008499904735390951</v>
+      </c>
+      <c r="G4">
+        <v>0.001810000677540098</v>
+      </c>
+      <c r="H4">
+        <v>0.0007300008627516639</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.0003200026535489369</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9.977920624655581e-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>380</v>
+      </c>
+      <c r="C5">
+        <v>0.02650009744119909</v>
+      </c>
+      <c r="D5">
+        <v>0.03092985022661868</v>
+      </c>
+      <c r="E5">
+        <v>0.01130028136692092</v>
+      </c>
+      <c r="F5">
+        <v>0.009019770340676843</v>
+      </c>
+      <c r="G5">
+        <v>0.0004508824707687616</v>
+      </c>
+      <c r="H5">
+        <v>0.0001391443102728282</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.132476067973357e-05</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.434490329035192e-07</v>
+      </c>
+      <c r="M5">
+        <v>1.10201834498044e-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,160 +694,718 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>-16380.86070822209</v>
+      </c>
+      <c r="C2">
+        <v>-20138.18655882859</v>
+      </c>
+      <c r="D2">
+        <v>-23018.8586113442</v>
+      </c>
+      <c r="E2">
+        <v>-31100.20717686915</v>
+      </c>
+      <c r="F2">
+        <v>16712.42796714685</v>
+      </c>
+      <c r="G2">
+        <v>22326.0050342524</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>16475.39712762672</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>21.49501136064987</v>
+      </c>
+      <c r="C3">
+        <v>27.2595395876308</v>
+      </c>
+      <c r="D3">
+        <v>30.49467135797064</v>
+      </c>
+      <c r="E3">
+        <v>42.58809100217088</v>
+      </c>
+      <c r="F3">
+        <v>-32.96837723817511</v>
+      </c>
+      <c r="G3">
+        <v>-42.72358742022932</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>-34.39987805552592</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.9982740702249175</v>
+      </c>
+      <c r="C4">
+        <v>0.9949548264762469</v>
+      </c>
+      <c r="D4">
+        <v>0.9648464097709708</v>
+      </c>
+      <c r="E4">
+        <v>0.9669226761105369</v>
+      </c>
+      <c r="F4">
+        <v>0.9228130948427349</v>
+      </c>
+      <c r="G4">
+        <v>0.9491495307909534</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0.8997035784846136</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>320</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>50.66</v>
+      </c>
+      <c r="E2">
+        <v>32.46</v>
+      </c>
+      <c r="F2">
+        <v>13.48</v>
+      </c>
+      <c r="G2">
+        <v>3.4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50.46735309282503</v>
+      </c>
+      <c r="E3">
+        <v>32.19290361054222</v>
+      </c>
+      <c r="F3">
+        <v>13.74852519725417</v>
+      </c>
+      <c r="G3">
+        <v>3.588184107898181</v>
+      </c>
+      <c r="H3">
+        <v>0.00303399148039534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>49.70409134489162</v>
+      </c>
+      <c r="E4">
+        <v>31.15125758440522</v>
+      </c>
+      <c r="F4">
+        <v>14.79949411842853</v>
+      </c>
+      <c r="G4">
+        <v>4.330102441480951</v>
+      </c>
+      <c r="H4">
+        <v>0.01505451079366208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>48.76624727433422</v>
+      </c>
+      <c r="E5">
+        <v>29.90674543649423</v>
+      </c>
+      <c r="F5">
+        <v>16.06305308198794</v>
+      </c>
+      <c r="G5">
+        <v>5.234129844924321</v>
+      </c>
+      <c r="H5">
+        <v>0.02982436225929436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>41.90058776776711</v>
+      </c>
+      <c r="E6">
+        <v>22.13001587994185</v>
+      </c>
+      <c r="F6">
+        <v>24.25451998812283</v>
+      </c>
+      <c r="G6">
+        <v>11.57693162664113</v>
+      </c>
+      <c r="H6">
+        <v>0.1379447375270946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>34.67881720103148</v>
+      </c>
+      <c r="E7">
+        <v>15.76725734129045</v>
+      </c>
+      <c r="F7">
+        <v>31.24374488025398</v>
+      </c>
+      <c r="G7">
+        <v>18.05850709038327</v>
+      </c>
+      <c r="H7">
+        <v>0.2516734870408275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>50.66</v>
+      </c>
+      <c r="E8">
+        <v>32.46</v>
+      </c>
+      <c r="F8">
+        <v>13.48</v>
+      </c>
+      <c r="G8">
+        <v>3.4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>49.83549048592391</v>
+      </c>
+      <c r="E9">
+        <v>32.74664394824944</v>
+      </c>
+      <c r="F9">
+        <v>13.87214617547307</v>
+      </c>
+      <c r="G9">
+        <v>3.509041244692555</v>
+      </c>
+      <c r="H9">
+        <v>0.03667814566101857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>46.67164979538686</v>
+      </c>
+      <c r="E10">
+        <v>33.81216447556081</v>
+      </c>
+      <c r="F10">
+        <v>15.39702127712595</v>
+      </c>
+      <c r="G10">
+        <v>3.941743442978948</v>
+      </c>
+      <c r="H10">
+        <v>0.177421008947438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>42.99934250728091</v>
+      </c>
+      <c r="E11">
+        <v>34.97472840464119</v>
+      </c>
+      <c r="F11">
+        <v>17.21016222729239</v>
+      </c>
+      <c r="G11">
+        <v>4.474983891351696</v>
+      </c>
+      <c r="H11">
+        <v>0.3407829694338184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>24.03794329917695</v>
+      </c>
+      <c r="E12">
+        <v>38.09187873578242</v>
+      </c>
+      <c r="F12">
+        <v>28.24310163047879</v>
+      </c>
+      <c r="G12">
+        <v>8.442796482078805</v>
+      </c>
+      <c r="H12">
+        <v>1.184279852483035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>320</v>
-      </c>
-      <c r="B2">
-        <v>0.002140000252680593</v>
-      </c>
-      <c r="C2">
-        <v>0.001310033730140783</v>
-      </c>
-      <c r="D2">
-        <v>0.0003000186125044765</v>
-      </c>
-      <c r="E2">
-        <v>5.994740449816015e-05</v>
-      </c>
-      <c r="F2">
-        <v>0.006699951257126428</v>
-      </c>
-      <c r="G2">
-        <v>0.004909966656891876</v>
-      </c>
-      <c r="H2">
-        <v>8.260166508952311e-08</v>
-      </c>
-      <c r="I2">
-        <v>0.00105001410274804</v>
-      </c>
-      <c r="J2">
-        <v>2.1443932800155e-12</v>
-      </c>
-      <c r="K2">
-        <v>3.361343399709337e-08</v>
-      </c>
-      <c r="L2">
-        <v>1.528632177420553e-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>350</v>
-      </c>
-      <c r="B3">
-        <v>0.00845000397260969</v>
-      </c>
-      <c r="C3">
-        <v>0.006100001016344999</v>
-      </c>
-      <c r="D3">
-        <v>0.001130001424170474</v>
-      </c>
-      <c r="E3">
-        <v>0.0007299931369685334</v>
-      </c>
-      <c r="F3">
-        <v>0.002820001927269689</v>
-      </c>
-      <c r="G3">
-        <v>0.001409999978322411</v>
-      </c>
-      <c r="H3">
-        <v>4.269074112453468e-10</v>
-      </c>
-      <c r="I3">
-        <v>0.0004600035600033942</v>
-      </c>
-      <c r="J3">
-        <v>1.420219603150241e-10</v>
-      </c>
-      <c r="K3">
-        <v>1.637076033761226e-08</v>
-      </c>
-      <c r="L3">
-        <v>5.872497121912997e-12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>12.40622600033409</v>
+      </c>
+      <c r="E13">
+        <v>35.80293176096185</v>
+      </c>
+      <c r="F13">
+        <v>37.29767170890953</v>
+      </c>
+      <c r="G13">
+        <v>12.7914487654098</v>
+      </c>
+      <c r="H13">
+        <v>1.701721764384743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>360</v>
       </c>
-      <c r="B4">
-        <v>0.01324000528331413</v>
-      </c>
-      <c r="C4">
-        <v>0.00951000361463745</v>
-      </c>
-      <c r="D4">
-        <v>0.002510002657333786</v>
-      </c>
-      <c r="E4">
-        <v>0.0008499835589235934</v>
-      </c>
-      <c r="F4">
-        <v>0.001809999851862952</v>
-      </c>
-      <c r="G4">
-        <v>0.0007300018448447442</v>
-      </c>
-      <c r="H4">
-        <v>9.050449923637298e-10</v>
-      </c>
-      <c r="I4">
-        <v>0.0003199984317686098</v>
-      </c>
-      <c r="J4">
-        <v>4.286693019990735e-09</v>
-      </c>
-      <c r="K4">
-        <v>1.029312238566842e-08</v>
-      </c>
-      <c r="L4">
-        <v>2.803577158046362e-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>50.66</v>
+      </c>
+      <c r="E14">
+        <v>32.46</v>
+      </c>
+      <c r="F14">
+        <v>13.48</v>
+      </c>
+      <c r="G14">
+        <v>3.4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>49.35453582457363</v>
+      </c>
+      <c r="E15">
+        <v>33.03878649547347</v>
+      </c>
+      <c r="F15">
+        <v>14.01037269067402</v>
+      </c>
+      <c r="G15">
+        <v>3.553806564992751</v>
+      </c>
+      <c r="H15">
+        <v>0.04249842428612031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>44.46912121311929</v>
+      </c>
+      <c r="E16">
+        <v>35.16886260939393</v>
+      </c>
+      <c r="F16">
+        <v>16.01795049099532</v>
+      </c>
+      <c r="G16">
+        <v>4.142526147119545</v>
+      </c>
+      <c r="H16">
+        <v>0.2015395393719195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>39.04262837074755</v>
+      </c>
+      <c r="E17">
+        <v>37.45805681114881</v>
+      </c>
+      <c r="F17">
+        <v>18.29645670635979</v>
+      </c>
+      <c r="G17">
+        <v>4.824662956189051</v>
+      </c>
+      <c r="H17">
+        <v>0.3781951555547913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>19.55979751181767</v>
+      </c>
+      <c r="E18">
+        <v>42.67471910897444</v>
+      </c>
+      <c r="F18">
+        <v>28.3702531430889</v>
+      </c>
+      <c r="G18">
+        <v>8.38278158968328</v>
+      </c>
+      <c r="H18">
+        <v>1.012448646435727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10.69265824049427</v>
+      </c>
+      <c r="E19">
+        <v>41.27333965818782</v>
+      </c>
+      <c r="F19">
+        <v>35.24706386443315</v>
+      </c>
+      <c r="G19">
+        <v>11.48581762866952</v>
+      </c>
+      <c r="H19">
+        <v>1.301120608215239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>380</v>
       </c>
-      <c r="B5">
-        <v>0.02650011588934929</v>
-      </c>
-      <c r="C5">
-        <v>0.03093006406416235</v>
-      </c>
-      <c r="D5">
-        <v>0.01130006244419683</v>
-      </c>
-      <c r="E5">
-        <v>0.009019756857727846</v>
-      </c>
-      <c r="F5">
-        <v>0.0004500990399225126</v>
-      </c>
-      <c r="G5">
-        <v>0.0001400046267067138</v>
-      </c>
-      <c r="H5">
-        <v>1.451169963830044e-13</v>
-      </c>
-      <c r="I5">
-        <v>7.029306243398523e-05</v>
-      </c>
-      <c r="J5">
-        <v>1.672856806526453e-09</v>
-      </c>
-      <c r="K5">
-        <v>1.403819804963752e-06</v>
-      </c>
-      <c r="L5">
-        <v>1.556885311524913e-11</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>50.66</v>
+      </c>
+      <c r="E20">
+        <v>32.46</v>
+      </c>
+      <c r="F20">
+        <v>13.48</v>
+      </c>
+      <c r="G20">
+        <v>3.4</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>46.87430646230633</v>
+      </c>
+      <c r="E21">
+        <v>33.73076077361345</v>
+      </c>
+      <c r="F21">
+        <v>14.99990766481172</v>
+      </c>
+      <c r="G21">
+        <v>3.955841538652569</v>
+      </c>
+      <c r="H21">
+        <v>0.4391835606159488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>34.56326213088673</v>
+      </c>
+      <c r="E22">
+        <v>37.84143717971236</v>
+      </c>
+      <c r="F22">
+        <v>19.95750597446342</v>
+      </c>
+      <c r="G22">
+        <v>5.770380193782315</v>
+      </c>
+      <c r="H22">
+        <v>1.867414521155164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>23.73850754079552</v>
+      </c>
+      <c r="E23">
+        <v>41.41267696445195</v>
+      </c>
+      <c r="F23">
+        <v>24.34597117995805</v>
+      </c>
+      <c r="G23">
+        <v>7.379607413311025</v>
+      </c>
+      <c r="H23">
+        <v>3.123236901483459</v>
       </c>
     </row>
   </sheetData>
